--- a/dataset_v1/task_sheet_answers/Invoices/10_Invoices/10_Invoices_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/Invoices/10_Invoices/10_Invoices_gt1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,11 +17,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0,"/>
-    <numFmt numFmtId="167" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="#\ ???/???"/>
+    <numFmt formatCode="\$#,##0.00;\-\$#,##0.00" numFmtId="164"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="165"/>
+    <numFmt formatCode="&quot;$&quot;#,##0," numFmtId="166"/>
+    <numFmt formatCode="d\-mmm\-yyyy" numFmtId="167"/>
+    <numFmt formatCode="#\ ???/???" numFmtId="168"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -173,66 +173,66 @@
     </border>
   </borders>
   <cellStyleXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="166"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="167">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="2" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9"/>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="8" numFmtId="168">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="4" numFmtId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="blue" xfId="2"/>
     <cellStyle name="bluecenteraccrossselection" xfId="3"/>
@@ -259,7 +259,7 @@
     <cellStyle name="Normal 2 3" xfId="24"/>
     <cellStyle name="Percent 2 2" xfId="25"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -640,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.109375" customWidth="1" style="3" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="14.109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -777,7 +777,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -795,9 +795,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="11.88671875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.21875" customWidth="1" style="3" min="2" max="2"/>
-    <col width="10.33203125" customWidth="1" style="3" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" style="3" width="11.88671875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="16.21875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="10.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1324,6 +1324,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>